--- a/content/species/data/sp_sharks_tbl_2.xlsx
+++ b/content/species/data/sp_sharks_tbl_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37711069-A5A9-4C19-89AA-627554A52A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E75B117-C086-4469-9948-B4435CD66DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6296E46F-ADE3-44D4-84F8-D7B15731C6E3}"/>
+    <workbookView xWindow="36375" yWindow="1380" windowWidth="17280" windowHeight="12330" xr2:uid="{6296E46F-ADE3-44D4-84F8-D7B15731C6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,37 +50,22 @@
     <t>Climate change</t>
   </si>
   <si>
-    <t>Bycatch (large and small-scale) in demersal trawl, longline, beach seine, gillnet, and squid fisheries; also caught in recreational line fisheries</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Range shift attributed to climate change, likely representing a significant loss of habitat</t>
   </si>
   <si>
-    <t>Bycatch (large and small-scale) including beach seine, gillnet, trawl, recreational and commercial line, rock lobster, and demersal shark longline fisheries</t>
-  </si>
-  <si>
     <t>Range shift likely attributable at least partially to climate change, possibly leading to loss of habitat; hatching rate of egg cases is temperature-specific and potentially sensitive to climate change</t>
   </si>
   <si>
-    <t>Bycatch (large and small-scale) in trawl fisheries, and commercial and recreational line fisheries</t>
-  </si>
-  <si>
     <t>Housing and urban development</t>
   </si>
   <si>
-    <t>Bycatch (large and small-scale) in demersal trawl and recreational and commercial line fisheries</t>
-  </si>
-  <si>
     <t>Commercial and industrial areas, tourism and recreation areas, domestic and urban waste water pollution</t>
   </si>
   <si>
     <t>Bycatch and retained catch (both large and small-scale) including trawl, commercial and recreational line, beach seine, and gillnet</t>
-  </si>
-  <si>
-    <t>Targeted catch and bycatch (both large and small-scale) in commercial and sports hook-and-line fisheries</t>
   </si>
   <si>
     <t>Coastal development and pollution</t>
@@ -159,7 +144,46 @@
   </si>
   <si>
     <r>
-      <t>Natal shyshark</t>
+      <t>Twineye skate (*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Raja ocellifera*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>, EN)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bycatch   in demersal trawl, longline, beach seine, gillnet, and squid fisheries; also caught in recreational line fisheries</t>
+  </si>
+  <si>
+    <t>Bycatch   including beach seine, gillnet, trawl, recreational and commercial line, rock lobster, and demersal shark longline fisheries</t>
+  </si>
+  <si>
+    <t>Bycatch   in trawl fisheries, and commercial and recreational line fisheries</t>
+  </si>
+  <si>
+    <t>Bycatch   in demersal trawl and recreational and commercial line fisheries</t>
+  </si>
+  <si>
+    <t>Targeted catch and bycatch (both large and small-scale) in commercial and recreational hook-and-line fisheries</t>
+  </si>
+  <si>
+    <r>
+      <t>Flapnose houndshark\*</t>
     </r>
     <r>
       <rPr>
@@ -178,12 +202,12 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (*Haploblepharus kistnasamyi*, VU)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Twineye skate (*</t>
+      <t xml:space="preserve"> (*Scylliogaleus quecketti*, VU)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Natal shyshark</t>
     </r>
     <r>
       <rPr>
@@ -193,7 +217,7 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t>Raja ocellifera*</t>
+      <t>\*</t>
     </r>
     <r>
       <rPr>
@@ -202,31 +226,7 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t>, EN)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Flapnose houndshark</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (*Scylliogaleus quecketti*, VU)</t>
+      <t>(*Haploblepharus kistnasamyi*, VU)</t>
     </r>
   </si>
 </sst>
@@ -366,16 +366,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,7 +714,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,143 +738,135 @@
     </row>
     <row r="2" spans="1:4" ht="204.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="186.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="93.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="192.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c860c8d8cea428af55d2deb18db3c3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a1915556badb0c1501ee51a52d85f263" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1152,6 +1144,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1166,14 +1167,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C1E662-8604-4F54-AE65-FB8E49CF8E85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1488CCE4-C847-49E4-8521-6BC70F2B2318}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1193,6 +1186,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31C1E662-8604-4F54-AE65-FB8E49CF8E85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4A04CF-DF98-4ABB-8890-599D79E42A3C}">
   <ds:schemaRefs>

--- a/content/species/data/sp_sharks_tbl_2.xlsx
+++ b/content/species/data/sp_sharks_tbl_2.xlsx
@@ -1,35 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E75B117-C086-4469-9948-B4435CD66DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="36375" yWindow="1380" windowWidth="17280" windowHeight="12330" xr2:uid="{6296E46F-ADE3-44D4-84F8-D7B15731C6E3}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -38,73 +22,78 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Fisheries</t>
-  </si>
-  <si>
-    <t>Habitat loss and degradation</t>
-  </si>
-  <si>
-    <t>Climate change</t>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisheries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitat loss and degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate change</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tiger catshark (*</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Halaelurus natalensis*,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> VU)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bycatch   in demersal trawl, longline, beach seine, gillnet, and squid fisheries; also caught in recreational line fisheries</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Range shift attributed to climate change, likely representing a significant loss of habitat</t>
-  </si>
-  <si>
-    <t>Range shift likely attributable at least partially to climate change, possibly leading to loss of habitat; hatching rate of egg cases is temperature-specific and potentially sensitive to climate change</t>
-  </si>
-  <si>
-    <t>Housing and urban development</t>
-  </si>
-  <si>
-    <t>Commercial and industrial areas, tourism and recreation areas, domestic and urban waste water pollution</t>
-  </si>
-  <si>
-    <t>Bycatch and retained catch (both large and small-scale) including trawl, commercial and recreational line, beach seine, and gillnet</t>
-  </si>
-  <si>
-    <t>Coastal development and pollution</t>
-  </si>
-  <si>
-    <r>
-      <t>Tiger catshark (*</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>Halaelurus natalensis*,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> VU)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Happy eddie</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
+    <t xml:space="preserve">Range shift attributed to climate change, likely representing a significant loss of habitat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Happy eddie</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -114,21 +103,36 @@
         <color theme="1"/>
         <rFont val="Aptos"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (*Haploblepharus edwardsii*, EN)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Brown shyshark</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
+    <t xml:space="preserve">Bycatch   including beach seine, gillnet, trawl, recreational and commercial line, rock lobster, and demersal shark longline fisheries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range shift likely attributable at least partially to climate change, possibly leading to loss of habitat; hatching rate of egg cases is temperature-specific and potentially sensitive to climate change</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Brown shyshark</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -138,60 +142,111 @@
         <color theme="1"/>
         <rFont val="Aptos"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  (*Haploblepharus fuscus*, VU)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Twineye skate (*</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>Raja ocellifera*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>, EN)</t>
-    </r>
-  </si>
-  <si>
-    <t>Bycatch   in demersal trawl, longline, beach seine, gillnet, and squid fisheries; also caught in recreational line fisheries</t>
-  </si>
-  <si>
-    <t>Bycatch   including beach seine, gillnet, trawl, recreational and commercial line, rock lobster, and demersal shark longline fisheries</t>
-  </si>
-  <si>
-    <t>Bycatch   in trawl fisheries, and commercial and recreational line fisheries</t>
-  </si>
-  <si>
-    <t>Bycatch   in demersal trawl and recreational and commercial line fisheries</t>
-  </si>
-  <si>
-    <t>Targeted catch and bycatch (both large and small-scale) in commercial and recreational hook-and-line fisheries</t>
-  </si>
-  <si>
-    <r>
-      <t>Flapnose houndshark\*</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
+    <t xml:space="preserve">Bycatch   in trawl fisheries, and commercial and recreational line fisheries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing and urban development</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Natal shyshark</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(*Haploblepharus kistnasamyi*, VU)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bycatch   in demersal trawl and recreational and commercial line fisheries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial and industrial areas, tourism and recreation areas, domestic and urban waste water pollution</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Twineye skate (*</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Raja ocellifera*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, EN)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bycatch and retained catch including trawl, commercial and recreational line, beach seine, and gillnet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Flapnose houndshark\*</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -201,66 +256,70 @@
         <color theme="1"/>
         <rFont val="Aptos"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (*Scylliogaleus quecketti*, VU)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Natal shyshark</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>\*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>(*Haploblepharus kistnasamyi*, VU)</t>
-    </r>
+    <t xml:space="preserve">Caught occasionally by the recreational hook-and-line fishery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal development and pollution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,319 +330,205 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
-    <border>
+  <borders count="5">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right style="medium"/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="0e2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="e8e8e8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="e97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="196b24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="0f9ed5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="a02b93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4ea72e"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="96607d"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -591,33 +536,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -630,13 +566,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -646,15 +576,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -662,7 +590,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -670,199 +597,180 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCD5152-2D73-4B67-8198-71FAD651F9DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="81.88671875" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="81.89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="204.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="186.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="186.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+    <row r="10" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="93.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="192.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
